--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2601.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2601.xlsx
@@ -354,7 +354,7 @@
         <v>1.537594386438511</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.865422790934601</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2601.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2601.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7974820204077719</v>
+        <v>1.431881308555603</v>
       </c>
       <c r="B1">
-        <v>1.537594386438511</v>
+        <v>2.236846923828125</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>5.026980400085449</v>
       </c>
       <c r="D1">
-        <v>1.865422790934601</v>
+        <v>3.239110708236694</v>
       </c>
       <c r="E1">
-        <v>0.9258849154394463</v>
+        <v>1.15222704410553</v>
       </c>
     </row>
   </sheetData>
